--- a/Tests/integrationTests/05_REST-API/WP_Test_Scenarios_Template_UCY.xlsx
+++ b/Tests/integrationTests/05_REST-API/WP_Test_Scenarios_Template_UCY.xlsx
@@ -1420,13 +1420,15 @@
     <t>Test Scenarios of REST Service under technical validation</t>
   </si>
   <si>
-    <t xml:space="preserve">To execute the tests below please open the simple API client from a browser, located in localhost:8081/clientExample/client.html </t>
-  </si>
-  <si>
     <t>Applicable OS (Skip otherwise)</t>
   </si>
   <si>
     <t>Win, Linux, Mac OSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To execute the tests below, start the ARE by calling 
+start.bat --webservice 
+please open the simple API client from a browser, located in localhost:8081/clientExample/client.html </t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1740,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1757,6 +1758,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2031,7 +2035,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2439,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,13 +2466,13 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>231</v>
+    <row r="4" spans="1:8" ht="243.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2480,7 +2484,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -2499,16 +2503,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -2518,7 +2522,7 @@
         <v>167</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>149</v>
@@ -2542,7 +2546,7 @@
         <v>166</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>149</v>
@@ -2566,7 +2570,7 @@
         <v>188</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>149</v>
@@ -2590,7 +2594,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>149</v>
@@ -2614,7 +2618,7 @@
         <v>168</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>149</v>
@@ -2638,7 +2642,7 @@
         <v>169</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>149</v>
@@ -2662,7 +2666,7 @@
         <v>155</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>149</v>
@@ -2686,7 +2690,7 @@
         <v>156</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>149</v>
@@ -2710,7 +2714,7 @@
         <v>161</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>149</v>
@@ -2734,7 +2738,7 @@
         <v>154</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>149</v>
@@ -2758,7 +2762,7 @@
         <v>162</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>149</v>
@@ -2782,7 +2786,7 @@
         <v>163</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>149</v>
@@ -2806,7 +2810,7 @@
         <v>164</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>149</v>
@@ -2830,7 +2834,7 @@
         <v>165</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>149</v>
@@ -2854,7 +2858,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>149</v>
@@ -2878,7 +2882,7 @@
         <v>158</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>149</v>
@@ -2902,7 +2906,7 @@
         <v>159</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>149</v>
@@ -2926,7 +2930,7 @@
         <v>160</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>149</v>
@@ -2950,7 +2954,7 @@
         <v>171</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>149</v>
@@ -2974,7 +2978,7 @@
         <v>172</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>149</v>
@@ -2998,7 +3002,7 @@
         <v>170</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>149</v>
@@ -3045,14 +3049,14 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -3427,7 +3431,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>201</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3444,7 +3448,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
@@ -3459,7 +3463,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="12" t="s">
         <v>39</v>
       </c>
@@ -3474,7 +3478,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
@@ -3489,7 +3493,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
@@ -3504,7 +3508,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>202</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3521,7 +3525,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="s">
         <v>49</v>
       </c>
@@ -3536,7 +3540,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="12" t="s">
         <v>49</v>
       </c>
@@ -3551,7 +3555,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="12" t="s">
         <v>56</v>
       </c>
@@ -3566,7 +3570,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="12" t="s">
         <v>57</v>
       </c>
@@ -3581,7 +3585,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -3596,7 +3600,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="12" t="s">
         <v>62</v>
       </c>
@@ -3611,7 +3615,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>203</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -3628,7 +3632,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="12" t="s">
         <v>69</v>
       </c>
@@ -3643,7 +3647,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
         <v>73</v>
       </c>
@@ -3658,7 +3662,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="12" t="s">
         <v>77</v>
       </c>
@@ -3673,7 +3677,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>204</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -3690,7 +3694,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="12" t="s">
         <v>87</v>
       </c>
@@ -3761,7 +3765,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <v>301</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -3778,7 +3782,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="12" t="s">
         <v>102</v>
       </c>
@@ -3793,7 +3797,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="12" t="s">
         <v>101</v>
       </c>
@@ -3808,7 +3812,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="12" t="s">
         <v>106</v>
       </c>
@@ -3823,7 +3827,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="12" t="s">
         <v>109</v>
       </c>
@@ -3838,7 +3842,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="12" t="s">
         <v>111</v>
       </c>
@@ -3853,7 +3857,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <v>302</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -3870,7 +3874,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="12" t="s">
         <v>99</v>
       </c>
@@ -3885,7 +3889,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="12" t="s">
         <v>120</v>
       </c>
@@ -3900,7 +3904,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="12" t="s">
         <v>122</v>
       </c>
@@ -3915,7 +3919,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="12" t="s">
         <v>124</v>
       </c>
@@ -3930,7 +3934,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <v>303</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -3947,7 +3951,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="12" t="s">
         <v>128</v>
       </c>
@@ -3962,7 +3966,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="12" t="s">
         <v>130</v>
       </c>
